--- a/data/trans_camb/P25_4-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_4-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,12 +632,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,17 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,17 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,12 +738,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -692,17 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -781,6 +872,21 @@
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -823,6 +929,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -861,6 +982,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,57</t>
+          <t>0,0; 7,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,79</t>
+          <t>0,0; 8,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 6,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 6,2</t>
+          <t>0,0; 6,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,35</t>
+          <t>0,0; 6,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,47</t>
+          <t>0,0; 19,41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 4,85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 5,19</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 11,25</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>355,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>367,58%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>179,83%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>187,8%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1047,10 +1243,25 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-71,52; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 7,27</t>
+          <t>-1,42; 9,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 1,93</t>
+          <t>-4,9; 2,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,71</t>
+          <t>-2,71; 4,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,85</t>
+          <t>-5,39; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 3,04</t>
+          <t>-5,39; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,81</t>
+          <t>-5,39; 0,0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 4,41</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 1,03</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 1,58</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>274,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-42,94%</t>
+          <t>-13,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-42,78%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-40,54%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-41,58%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>94,21%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-54,02%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-40,63%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-72,54; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1203,12 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-68,22; 306,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-91,16; 143,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 8,5</t>
+          <t>-6,5; 5,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 12,45</t>
+          <t>-4,68; 9,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 11,82</t>
+          <t>-6,56; 4,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 9,76</t>
+          <t>-1,81; 12,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 7,98</t>
+          <t>-0,16; 16,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 8,89</t>
+          <t>-5,77; 3,28</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 6,77</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 9,61</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 2,5</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>-6,17%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>98,03%</t>
+          <t>55,23%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>156,72%</t>
+          <t>-41,17%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>118,92%</t>
+          <t>240,88%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>81,38%</t>
+          <t>341,37%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>105,53%</t>
+          <t>-16,36%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>67,38%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>142,32%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-34,29%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-68,92; 784,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-55,35; 941,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-47,61; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-53,31; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,72; 497,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 543,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-77,68; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-52,67; 1283,54</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-1,66</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-4,03</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 10,85</t>
+          <t>-14,3; 11,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 4,6</t>
+          <t>-19,01; 4,47</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 10,52</t>
+          <t>-14,41; 13,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 11,57</t>
+          <t>-6,72; 12,08</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 6,19</t>
+          <t>-11,22; 2,74</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 5,34</t>
+          <t>-10,33; 3,9</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-7,31; 7,97</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-10,82; 1,57</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-8,57; 4,8</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,83%</t>
+          <t>-23,05%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-40,63%</t>
+          <t>-55,18%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-10,86%</t>
+          <t>-5,53%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-10,36%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-6,56%</t>
+          <t>-62,67%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-25,58%</t>
+          <t>-39,27%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-57,41%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-21,82%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-61,69; 146,01</t>
+          <t>-100,0; 402,23</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-82,04; 71,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-78,58; 259,49</t>
+          <t>-85,5; 376,77</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-83,04; 301,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-58,19; 78,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-70,52; 78,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-75,35; 218,91</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-91,66; 110,86</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-79,62; 165,0</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,25</t>
+          <t>-1,67; 3,06</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,28</t>
+          <t>-2,35; 1,63</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,76</t>
+          <t>-2,43; 1,9</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,27</t>
+          <t>-0,55; 2,92</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,98</t>
+          <t>-0,97; 2,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,83</t>
+          <t>-0,99; 3,87</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 2,26</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 1,45</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 1,93</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>29,9%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-22,09%</t>
+          <t>-13,85%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>31,67%</t>
+          <t>-12,2%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>61,74%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>58,99%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>54,62%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>13,1%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-42,64; 98,16</t>
+          <t>-56,97; 236,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-59,22; 65,29</t>
+          <t>-72,04; 162,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-45,1; 179,51</t>
+          <t>-74,87; 194,71</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 200,93</t>
+          <t>-56,48; 829,79</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-25,3; 94,02</t>
+          <t>-68,6; 645,97</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 85,61</t>
+          <t>-86,43; 1749,92</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-32,56; 218,85</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-51,98; 164,38</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-57,53; 211,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
